--- a/map data.xlsx
+++ b/map data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件\Python\Project\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Magic-Tower-master\Magic-Tower-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143FD1FC-A687-4A17-8F91-9F4A2B771C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A746A969-4754-435A-BF51-7FD062AC6721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="144" windowWidth="13824" windowHeight="12156" xr2:uid="{A6ED0D30-8980-4F86-A2B5-4F6F98B5ED64}"/>
+    <workbookView xWindow="132" yWindow="144" windowWidth="11796" windowHeight="12156" xr2:uid="{A6ED0D30-8980-4F86-A2B5-4F6F98B5ED64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="167">
   <si>
     <t>Floor 1</t>
   </si>
@@ -96,182 +96,486 @@
     <t>Floor 3</t>
   </si>
   <si>
+    <t>Star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic door</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WM = Wiseman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM = Bussinessman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fairy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>God 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>God 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>God 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Fance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thief</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Init</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i39</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Init</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor 21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>God 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>God 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>God 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i58</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Star</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lava</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stair 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic door</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WM = Wiseman</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM = Bussinessman</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fairy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Floor 4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>God 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>God 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>God 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stair 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stair 5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i48</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Floor 5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stair 6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stair 4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thief</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Floor 6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stair 7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Init</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>init</t>
+  </si>
+  <si>
+    <t>Star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -279,67 +583,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>i56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Floor 7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stair 8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Floor 8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stair 9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i39</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Floor 9</t>
+    <t>Stair 16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF + 30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK + 30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WM2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WM3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WM4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m28+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m26+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Princess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stair 21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i52</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m29+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -347,7 +675,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +695,19 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -426,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -436,6 +777,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -750,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794821B6-73AC-4AAE-97D8-435B5C7EFFD1}">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="I248" sqref="I248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -764,37 +1111,37 @@
       </c>
       <c r="M1" s="3"/>
       <c r="N1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -807,31 +1154,31 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -844,29 +1191,29 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2"/>
       <c r="M4" s="5"/>
@@ -877,29 +1224,29 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2"/>
       <c r="M5" s="4"/>
@@ -910,62 +1257,62 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2"/>
       <c r="M6" s="8"/>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2"/>
       <c r="M7" t="s">
@@ -976,23 +1323,23 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1018,25 +1365,25 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2"/>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s">
         <v>7</v>
@@ -1044,35 +1391,35 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s">
         <v>8</v>
@@ -1080,40 +1427,40 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1121,7 +1468,7 @@
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1129,7 +1476,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
@@ -1162,7 +1509,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
@@ -1184,7 +1531,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
@@ -1214,7 +1561,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
@@ -1224,20 +1571,20 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
       <c r="G19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
@@ -1275,7 +1622,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
@@ -1302,7 +1649,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="2"/>
@@ -1310,7 +1657,7 @@
         <v>9</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>14</v>
@@ -1355,7 +1702,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
@@ -1375,7 +1722,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3" t="s">
@@ -1421,7 +1768,7 @@
         <v>9</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K28" s="2"/>
     </row>
@@ -1478,7 +1825,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="2"/>
@@ -1491,13 +1838,9 @@
       <c r="E33" s="2"/>
       <c r="F33" s="7"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="J33" s="3"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1521,7 +1864,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="3" t="s">
@@ -1542,7 +1885,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="3" t="s">
@@ -1557,38 +1900,44 @@
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="H37" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1597,10 +1946,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
@@ -1610,16 +1959,16 @@
       <c r="H39" s="2"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="2"/>
@@ -1638,16 +1987,16 @@
       <c r="D41" s="2"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="2"/>
       <c r="I41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -1660,41 +2009,41 @@
       <c r="G42" s="3"/>
       <c r="H42" s="2"/>
       <c r="I42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="2"/>
       <c r="I43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1726,15 +2075,15 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
@@ -1747,65 +2096,65 @@
       <c r="E47" s="3"/>
       <c r="F47" s="2"/>
       <c r="G47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="2"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K50" s="3"/>
     </row>
@@ -1828,9 +2177,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="F52" s="3"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="3"/>
@@ -1841,59 +2188,59 @@
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="G53" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -1901,34 +2248,34 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="3"/>
       <c r="J56" s="2"/>
       <c r="K56" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -1937,13 +2284,13 @@
       <c r="C57" s="3"/>
       <c r="D57" s="2"/>
       <c r="E57" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="3"/>
@@ -1965,108 +2312,108 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
       <c r="D59" s="2"/>
       <c r="E59" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="3"/>
       <c r="J59" s="2"/>
       <c r="K59" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="2"/>
       <c r="K60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="2"/>
       <c r="E64" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="2"/>
@@ -2079,28 +2426,28 @@
       <c r="A65" s="3"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
@@ -2112,22 +2459,22 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -2136,12 +2483,12 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -2154,21 +2501,21 @@
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K69" s="3"/>
     </row>
@@ -2177,7 +2524,7 @@
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="1"/>
@@ -2189,128 +2536,128 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
       <c r="E71" s="2"/>
       <c r="F71" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="2"/>
       <c r="H72" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="3"/>
       <c r="E76" s="5"/>
       <c r="F76" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -2318,7 +2665,7 @@
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="3"/>
@@ -2326,7 +2673,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="2"/>
       <c r="J77" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K77" s="3"/>
     </row>
@@ -2347,21 +2694,21 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -2383,11 +2730,11 @@
       <c r="A81" s="3"/>
       <c r="B81" s="2"/>
       <c r="C81" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -2413,7 +2760,7 @@
       <c r="A83" s="3"/>
       <c r="B83" s="2"/>
       <c r="C83" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="3"/>
@@ -2422,7 +2769,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K83" s="2"/>
     </row>
@@ -2432,30 +2779,30 @@
       <c r="C84" s="3"/>
       <c r="D84" s="2"/>
       <c r="E84" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -2472,13 +2819,13 @@
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="5"/>
       <c r="G87" s="2"/>
       <c r="H87" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="2"/>
@@ -2488,21 +2835,21 @@
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="2"/>
@@ -2514,7 +2861,7 @@
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -2527,19 +2874,19 @@
       <c r="B90" s="3"/>
       <c r="C90" s="5"/>
       <c r="D90" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F90" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="I90" s="5"/>
       <c r="J90" s="3"/>
@@ -2552,7 +2899,7 @@
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -2564,21 +2911,21 @@
       <c r="A92" s="3"/>
       <c r="B92" s="2"/>
       <c r="C92" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="3"/>
@@ -2587,19 +2934,19 @@
       <c r="A93" s="3"/>
       <c r="B93" s="2"/>
       <c r="C93" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="5"/>
       <c r="G93" s="2"/>
       <c r="H93" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="3"/>
@@ -2609,19 +2956,19 @@
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
@@ -2646,10 +2993,10 @@
       <c r="C96" s="3"/>
       <c r="D96" s="1"/>
       <c r="E96" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="1"/>
@@ -2659,151 +3006,3385 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="B98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
+      <c r="G98" s="2"/>
       <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
+      <c r="I98" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="K98" s="3"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="A99" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" s="2"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
       <c r="K99" s="3"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="B100" s="2"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
+      <c r="D100" s="2"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+      <c r="G100" s="5"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="A101" s="10"/>
+      <c r="B101" s="2"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J101" s="2"/>
+      <c r="K101" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="B102" s="2"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
+      <c r="A103" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
       <c r="K103" s="3"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
+      <c r="A104" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" s="2"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
+      <c r="H104" s="2"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
+      <c r="J104" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="K104" s="3"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H105" s="2"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="B106" s="2"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
+      <c r="D106" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H106" s="2"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="2"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
       <c r="K107" s="3"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="C108" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
+      <c r="F108" s="2"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
+      <c r="H108" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H114" s="2"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H116" s="2"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H119" s="2"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H120" s="2"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="3"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="3"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G128" s="2"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K128" s="3"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="3"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I130" s="3"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F131" s="4"/>
+      <c r="G131" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H131" s="2"/>
+      <c r="I131" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J131" s="2"/>
+      <c r="K131" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H132" s="2"/>
+      <c r="I132" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J132" s="2"/>
+      <c r="K132" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H134" s="2"/>
+      <c r="I134" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H135" s="2"/>
+      <c r="I135" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H136" s="2"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K136" s="3"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="2"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="1"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I140" s="3"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J141" s="2"/>
+      <c r="K141" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H142" s="2"/>
+      <c r="I142" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J142" s="2"/>
+      <c r="K142" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H143" s="2"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H146" s="3"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G148" s="2"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G149" s="2"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K149" s="3"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G150" s="2"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G151" s="2"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="2"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G152" s="2"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I154" s="13"/>
+      <c r="J154" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K158" s="3"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="3"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="3"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J161" s="2"/>
+      <c r="K161" s="3"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F162" s="2"/>
+      <c r="G162" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H162" s="2"/>
+      <c r="I162" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J162" s="2"/>
+      <c r="K162" s="3"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E163" s="3"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H163" s="2"/>
+      <c r="I163" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J163" s="2"/>
+      <c r="K163" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F164" s="2"/>
+      <c r="G164" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H164" s="2"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I166" s="3"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="3"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="3"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C168" s="3"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G168" s="2"/>
+      <c r="H168" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J168" s="1"/>
+      <c r="K168" s="3"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="2"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J171" s="3"/>
+      <c r="K171" s="2"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="2"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="2"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="2"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J175" s="3"/>
+      <c r="K175" s="2"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E176" s="2"/>
+      <c r="F176" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G176" s="2"/>
+      <c r="H176" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J176" s="3"/>
+      <c r="K176" s="2"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E177" s="2"/>
+      <c r="F177" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G177" s="2"/>
+      <c r="H177" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I177" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J177" s="3"/>
+      <c r="K177" s="2"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E178" s="2"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J178" s="3"/>
+      <c r="K178" s="2"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+      <c r="B179" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E179" s="5"/>
+      <c r="F179" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G179" s="5"/>
+      <c r="H179" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K179" s="2"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
+      <c r="B183" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I183" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J183" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K183" s="3"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+      <c r="B184" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J184" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K184" s="3"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+      <c r="B185" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F185" s="2"/>
+      <c r="G185" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H185" s="2"/>
+      <c r="I185" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J185" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K185" s="3"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+      <c r="B186" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F186" s="2"/>
+      <c r="G186" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H186" s="2"/>
+      <c r="I186" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J186" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K186" s="3"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+      <c r="B187" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F187" s="2"/>
+      <c r="G187" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H187" s="2"/>
+      <c r="I187" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J187" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K187" s="3"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+      <c r="B188" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J188" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K188" s="3"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+      <c r="B189" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J189" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K189" s="3"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+      <c r="B190" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J190" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K190" s="3"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
+      <c r="B191" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F191" s="3"/>
+      <c r="G191" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H191" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I191" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J191" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K191" s="3"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H194" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I194" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J194" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K194" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F195" s="3"/>
+      <c r="G195" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H195" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I195" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J195" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K195" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F196" s="3"/>
+      <c r="G196" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H196" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I196" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J196" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K196" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E197" s="2"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J197" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K197" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F198" s="3"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J198" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K198" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J199" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K199" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J200" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K200" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J201" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K201" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I202" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J202" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K202" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H203" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J203" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K203" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H204" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I204" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J204" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K204" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H207" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I207" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J207" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K207" s="3"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B208" s="3"/>
+      <c r="C208" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3"/>
+      <c r="K208" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B209" s="3"/>
+      <c r="C209" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D209" s="3"/>
+      <c r="E209" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H209" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I209" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J209" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K209" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B210" s="3"/>
+      <c r="C210" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D210" s="3"/>
+      <c r="E210" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+      <c r="J210" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K210" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B211" s="3"/>
+      <c r="C211" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H211" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I211" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J211" s="3"/>
+      <c r="K211" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B212" s="3"/>
+      <c r="C212" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K212" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G213" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H213" s="3"/>
+      <c r="I213" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J213" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K213" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I214" s="3"/>
+      <c r="J214" s="3"/>
+      <c r="K214" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H215" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I215" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J215" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K215" s="3"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
+      <c r="K216" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H218" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I218" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J218" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K218" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H219" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I219" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J219" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K219" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H220" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I220" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J220" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K220" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I221" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J221" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K221" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J222" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K222" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J223" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K223" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J224" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K224" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E225" s="2"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I225" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J225" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K225" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G226" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H226" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I226" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J226" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K226" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H227" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I227" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J227" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K227" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3"/>
+      <c r="K230" s="3"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="3"/>
+      <c r="B231" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G231" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H231" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I231" s="3"/>
+      <c r="J231" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K231" s="3"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" s="3"/>
+      <c r="B232" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C232" s="3"/>
+      <c r="D232" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H232" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I232" s="3"/>
+      <c r="J232" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K232" s="3"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="3"/>
+      <c r="B233" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C233" s="3"/>
+      <c r="D233" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H233" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I233" s="3"/>
+      <c r="J233" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K233" s="3"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" s="3"/>
+      <c r="B234" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H234" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I234" s="3"/>
+      <c r="J234" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K234" s="3"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="3"/>
+      <c r="B235" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F235" s="3"/>
+      <c r="G235" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H235" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J235" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K235" s="3"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" s="3"/>
+      <c r="B236" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C236" s="3"/>
+      <c r="D236" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G236" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H236" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I236" s="3"/>
+      <c r="J236" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K236" s="3"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="3"/>
+      <c r="B237" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F237" s="3"/>
+      <c r="G237" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H237" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J237" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K237" s="3"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="3"/>
+      <c r="B238" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F238" s="3"/>
+      <c r="G238" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H238" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I238" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J238" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K238" s="3"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="3"/>
+      <c r="B239" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F239" s="3"/>
+      <c r="G239" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H239" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I239" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J239" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K239" s="3"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H243" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J243" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K244" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E245" s="3"/>
+      <c r="F245" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G245" s="3"/>
+      <c r="H245" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J245" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K246" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C247" s="3"/>
+      <c r="D247" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E247" s="3"/>
+      <c r="F247" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G247" s="3"/>
+      <c r="H247" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I247" s="3"/>
+      <c r="J247" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K247" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K248" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3"/>
+      <c r="H249" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J249" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K250" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H251" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J251" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/map data.xlsx
+++ b/map data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Magic-Tower-master\Magic-Tower-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A746A969-4754-435A-BF51-7FD062AC6721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3F3775-0214-4D47-8E28-89E228C93A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="144" windowWidth="11796" windowHeight="12156" xr2:uid="{A6ED0D30-8980-4F86-A2B5-4F6F98B5ED64}"/>
+    <workbookView xWindow="10164" yWindow="168" windowWidth="11796" windowHeight="12156" xr2:uid="{A6ED0D30-8980-4F86-A2B5-4F6F98B5ED64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="169">
   <si>
     <t>Floor 1</t>
   </si>
@@ -668,6 +668,14 @@
   </si>
   <si>
     <t>m29+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1099,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794821B6-73AC-4AAE-97D8-435B5C7EFFD1}">
   <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="I248" sqref="I248"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1481,9 +1489,15 @@
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
